--- a/extras/sample-form-v2/Timed categories v2 more options sample form.xlsx
+++ b/extras/sample-form-v2/Timed categories v2 more options sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max.s.haberman/Documents/SurveyCTO code/Field plug-ins by Max/Finalized/timed-categories/extras/sample-form-v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8AC893-4C41-084E-8CAB-B9AB378A810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22061326-750C-9C41-9509-78E7697984D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="16640" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="434">
   <si>
     <t>deviceid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2572,12 +2572,6 @@
 unit='cs')</t>
   </si>
   <si>
-    <t>&lt;p&gt;Centisecond timer&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;appearance&lt;/em&gt;:&lt;/p&gt;
-&lt;code&gt;custom-timed-categories(version=2, correct=${correct_val}, unit='cs')&lt;/code&gt;
-&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
-  </si>
-  <si>
     <t>Choice value of the correct choice</t>
   </si>
   <si>
@@ -2586,40 +2580,16 @@
 showtimer=0)</t>
   </si>
   <si>
-    <t>&lt;p&gt;Hidden timer&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;appearance&lt;/em&gt;:&lt;/p&gt;
-&lt;code&gt;custom-timed-categories(version=2, correct=${correct_val}, showtimer=0)&lt;/code&gt;
-&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
-  </si>
-  <si>
     <t>custom-timed-categories(version=2,
 correct=${correct_val},
 hidekeys=1)</t>
   </si>
   <si>
-    <t>&lt;p&gt;Hidden keys&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;appearance&lt;/em&gt;:&lt;/p&gt;
-&lt;code&gt;custom-timed-categories(version=2, correct=${correct_val}, hidekeys=1)&lt;/code&gt;
-&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
-  </si>
-  <si>
     <t>custom-timed-categories(version=2,
 correct=${correct_val},
 allowkeys=0)</t>
   </si>
   <si>
-    <t>&lt;p&gt;Key presses not allowed&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;appearance&lt;/em&gt;:&lt;/p&gt;
-&lt;code&gt;custom-timed-categories(version=2, correct=${correct_val}, allowkeys=0)&lt;/code&gt;
-&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Clicking boxes not allowed&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;appearance&lt;/em&gt;:&lt;/p&gt;
-&lt;code&gt;custom-timed-categories(version=2, correct=${correct_val}, allowclick=0)&lt;/code&gt;
-&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
-  </si>
-  <si>
     <t>custom-timed-categories(version=2,
 correct=${correct_val},
 allowclick=0)</t>
@@ -2628,71 +2598,131 @@
     <t>metadata6</t>
   </si>
   <si>
-    <t>&lt;p&gt;Standard v2 timed-categories field&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;appearance&lt;/em&gt;:&lt;/p&gt;
-&lt;code&gt;custom-timed-categories(version=2,
-correct=${correct_val})&lt;/code&gt;
+    <t>standard</t>
+  </si>
+  <si>
+    <t>plug-in-metadata(${standard})</t>
+  </si>
+  <si>
+    <t>centiseconds</t>
+  </si>
+  <si>
+    <t>plug-in-metadata(${centiseconds})</t>
+  </si>
+  <si>
+    <t>hidden_timer</t>
+  </si>
+  <si>
+    <t>plug-in-metadata(${hidden_timer})</t>
+  </si>
+  <si>
+    <t>hidden_keys</t>
+  </si>
+  <si>
+    <t>plug-in-metadata(${hidden_keys})</t>
+  </si>
+  <si>
+    <t>no_keypress</t>
+  </si>
+  <si>
+    <t>plug-in-metadata(${no_keypress})</t>
+  </si>
+  <si>
+    <t>no_click</t>
+  </si>
+  <si>
+    <t>plug-in-metadata(${no_click})</t>
+  </si>
+  <si>
+    <t>pictures</t>
+  </si>
+  <si>
+    <t>slight-frown.png</t>
+  </si>
+  <si>
+    <t>slight-smile.png</t>
+  </si>
+  <si>
+    <t>select_one pictures</t>
+  </si>
+  <si>
+    <t>metadata7</t>
+  </si>
+  <si>
+    <t>plug-in-metadata(${pictures})</t>
+  </si>
+  <si>
+    <t>crops</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Carrots</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>select_one crops</t>
+  </si>
+  <si>
+    <t>randomized</t>
+  </si>
+  <si>
+    <t>plug-in-metadata(${randomized})</t>
+  </si>
+  <si>
+    <t>more__info</t>
+  </si>
+  <si>
+    <t>We demonstrated each feature one-at-a-time, but you can absolutely combine them.</t>
+  </si>
+  <si>
+    <t>metadata8</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;This timer displays the time in centiseconds instead of seconds.&lt;/p&gt;&lt;code&gt;custom-timed-categories(version=2, correct=&amp;#36;{correct_val}, unit='cs')&lt;/code&gt;
 &lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>plug-in-metadata(${standard})</t>
-  </si>
-  <si>
-    <t>centiseconds</t>
-  </si>
-  <si>
-    <t>plug-in-metadata(${centiseconds})</t>
-  </si>
-  <si>
-    <t>hidden_timer</t>
-  </si>
-  <si>
-    <t>plug-in-metadata(${hidden_timer})</t>
-  </si>
-  <si>
-    <t>hidden_keys</t>
-  </si>
-  <si>
-    <t>plug-in-metadata(${hidden_keys})</t>
-  </si>
-  <si>
-    <t>no_keypress</t>
-  </si>
-  <si>
-    <t>plug-in-metadata(${no_keypress})</t>
-  </si>
-  <si>
-    <t>no_click</t>
-  </si>
-  <si>
-    <t>plug-in-metadata(${no_click})</t>
-  </si>
-  <si>
-    <t>pictures</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Pictures&lt;/p&gt;
-&lt;p&gt;&lt;em&gt;appearance&lt;/em&gt;:&lt;/p&gt;
-&lt;code&gt;custom-timed-categories(version=2, correct=${correct_val})&lt;/code&gt;
+    <t>&lt;p&gt;In this field, the timer is hidden, although it is still tracking the time in the background.&lt;/p&gt;&lt;code&gt;custom-timed-categories(version=2, correct=&amp;#36;{correct_val}, showtimer=0)&lt;/code&gt;
 &lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>slight-frown.png</t>
-  </si>
-  <si>
-    <t>slight-smile.png</t>
-  </si>
-  <si>
-    <t>select_one pictures</t>
-  </si>
-  <si>
-    <t>metadata7</t>
-  </si>
-  <si>
-    <t>plug-in-metadata(${pictures})</t>
+    <t>&lt;p&gt;In this field, the keys you can press are hidden, but they still work. Press "E" for "Fruit", or "I" for "Vegetable".&lt;/p&gt;&lt;code&gt;custom-timed-categories(version=2, correct=&amp;#36;{correct_val}, hidekeys=1)&lt;/code&gt;
+&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this field, you can only select a choice by clicking/tapping the choice column; you can't use the keyboard keys.&lt;/p&gt;&lt;code&gt;custom-timed-categories(version=2, correct=&amp;#36;{correct_val}, allowkeys=0)&lt;/code&gt;
+&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;In this field, you can only select a choice using the keyboard keys; you can't click/tap the choice column.&lt;/p&gt;
+&lt;code&gt;custom-timed-categories(version=2, correct=&amp;#36;{correct_val}, allowclick=0)&lt;/code&gt;
+&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Choices can include images.&lt;/p&gt;&lt;code&gt;custom-timed-categories(version=2, correct=&amp;#36;{correct_val})&lt;/code&gt;
+&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;This is a basic version of v2 of the timed-categories field plug-in.&lt;/p&gt;&lt;code&gt;custom-timed-categories(version=2,
+correct=&amp;#36;{correct_val})&lt;/code&gt;
+&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomized custom-timed-categories(version=2,
+correct='1') </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;You can have as many columns as you'd like. They can even be randomized, like other choice lists.&lt;/p&gt;
+&lt;code&gt;randomized custom-timed-categories(version=2,
+correct='1') &lt;/code&gt;
+&lt;h2&gt;${choice_name}&lt;/h2&gt;</t>
   </si>
 </sst>
 </file>
@@ -3610,6 +3640,64 @@
   <dxfs count="124">
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -3619,6 +3707,50 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
@@ -3661,6 +3793,39 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="6" tint="0.59999389629810485"/>
@@ -3669,8 +3834,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3685,6 +3851,21 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3698,6 +3879,350 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFDCC97A"/>
@@ -3706,96 +4231,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFE4E300"/>
@@ -3804,54 +4239,15 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3859,372 +4255,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4292,7 +4322,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEAEB74"/>
+          <bgColor rgb="FFE3E0CF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4300,6 +4330,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4313,16 +4351,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
+          <bgColor rgb="FFEAEB74"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4382,6 +4412,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -4394,7 +4431,73 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF6969"/>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4408,14 +4511,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4431,23 +4527,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4461,22 +4541,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4489,13 +4554,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -4507,13 +4565,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -4526,21 +4577,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4548,13 +4585,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFBBBB59"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4973,13 +5003,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5334,7 +5364,7 @@
         <v>368</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>369</v>
@@ -5345,10 +5375,10 @@
         <v>370</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>362</v>
@@ -5440,7 +5470,7 @@
         <v>362</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>362</v>
@@ -5475,10 +5505,10 @@
         <v>370</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>362</v>
@@ -5570,7 +5600,7 @@
         <v>362</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>362</v>
@@ -5600,15 +5630,15 @@
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>370</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>362</v>
@@ -5617,7 +5647,7 @@
         <v>362</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>362</v>
@@ -5700,7 +5730,7 @@
         <v>362</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>362</v>
@@ -5730,15 +5760,15 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>370</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>362</v>
@@ -5747,7 +5777,7 @@
         <v>362</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>362</v>
@@ -5830,7 +5860,7 @@
         <v>362</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="O26" s="9" t="s">
         <v>362</v>
@@ -5860,15 +5890,15 @@
         <v>362</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="136" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>370</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>362</v>
@@ -5877,7 +5907,7 @@
         <v>362</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>362</v>
@@ -5960,7 +5990,7 @@
         <v>362</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>362</v>
@@ -5990,15 +6020,15 @@
         <v>362</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="119" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>370</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>362</v>
@@ -6007,7 +6037,7 @@
         <v>362</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>362</v>
@@ -6060,7 +6090,7 @@
         <v>121</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>362</v>
@@ -6090,7 +6120,7 @@
         <v>362</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>362</v>
@@ -6122,13 +6152,13 @@
     </row>
     <row r="34" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>362</v>
@@ -6190,140 +6220,176 @@
         <v>121</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="U35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="V35" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="W35" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="136" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="N35" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="O35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="R35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="S35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="T35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="U35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="V35" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="W35" s="9" t="s">
-        <v>362</v>
+      <c r="C37" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:W1048576">
-    <cfRule type="expression" dxfId="123" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="2" stopIfTrue="1">
+      <formula>$A1="file"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="6" stopIfTrue="1">
+      <formula>$A1="enumerator"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="10" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="13" stopIfTrue="1">
+      <formula>$A1="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="17" stopIfTrue="1">
+      <formula>OR($A1="audio", $A1="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="19" stopIfTrue="1">
+      <formula>$A1="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="23" stopIfTrue="1">
+      <formula>OR($A1="date", $A1="datetime", $A1="time")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="25" stopIfTrue="1">
+      <formula>OR($A1="calculate", $A1="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="27" stopIfTrue="1">
+      <formula>$A1="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="29" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="2" stopIfTrue="1">
-      <formula>$A1="file"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="31" stopIfTrue="1">
+      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="33" stopIfTrue="1">
+      <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="36" stopIfTrue="1">
+      <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="43" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="48" stopIfTrue="1">
+      <formula>$A1="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="50" stopIfTrue="1">
+      <formula>$A1="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="52" stopIfTrue="1">
+      <formula>$A1="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="53" stopIfTrue="1">
+      <formula>$A1="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="55" stopIfTrue="1">
+      <formula>$A1="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="56" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="6" stopIfTrue="1">
-      <formula>$A1="enumerator"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="55" stopIfTrue="1">
-      <formula>$A1="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="10" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="53" stopIfTrue="1">
-      <formula>$A1="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="13" stopIfTrue="1">
-      <formula>$A1="comments"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="52" stopIfTrue="1">
-      <formula>$A1="text"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="17" stopIfTrue="1">
-      <formula>OR($A1="audio", $A1="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="50" stopIfTrue="1">
-      <formula>$A1="integer"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="19" stopIfTrue="1">
-      <formula>$A1="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="48" stopIfTrue="1">
-      <formula>$A1="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="23" stopIfTrue="1">
-      <formula>OR($A1="date", $A1="datetime", $A1="time")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="43" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="25" stopIfTrue="1">
-      <formula>OR($A1="calculate", $A1="calculate_here")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="36" stopIfTrue="1">
-      <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="27" stopIfTrue="1">
-      <formula>$A1="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="33" stopIfTrue="1">
-      <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="58" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="31" stopIfTrue="1">
-      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="102" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="9" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="101" priority="32" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="9" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576 N1:N1048576">
@@ -6358,20 +6424,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="93" priority="30" stopIfTrue="1">
-      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="1" stopIfTrue="1">
+      <formula>$A1="file"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="16" stopIfTrue="1">
+      <formula>OR($A1="audio", $A1="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="26" stopIfTrue="1">
       <formula>$A1="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="16" stopIfTrue="1">
-      <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="90" priority="28" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="1" stopIfTrue="1">
-      <formula>$A1="file"</formula>
+    <cfRule type="expression" dxfId="89" priority="30" stopIfTrue="1">
+      <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1048576 F1:F1048576">
@@ -6402,7 +6468,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6503,7 +6569,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>374</v>
@@ -6512,7 +6578,7 @@
         <v>375</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>362</v>
@@ -6520,7 +6586,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>376</v>
@@ -6529,20 +6595,52 @@
         <v>377</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
@@ -6617,7 +6715,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2312161659</v>
+        <v>2312172252</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>362</v>
@@ -10599,14 +10697,14 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:J6 L6:O6 Q6:S6">
-    <cfRule type="expression" dxfId="82" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="95" stopIfTrue="1">
+      <formula>$A6="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="96" stopIfTrue="1">
+      <formula>$A6="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="98" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="95" stopIfTrue="1">
-      <formula>$A6="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="96" stopIfTrue="1">
-      <formula>$A6="end group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:J6 Q6:S6">
@@ -10637,25 +10735,25 @@
     <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
       <formula>$A6="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
+      <formula>$A6="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
       <formula>$A6="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="92" stopIfTrue="1">
-      <formula>$A6="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:J6">
-    <cfRule type="expression" dxfId="68" priority="73" stopIfTrue="1">
-      <formula>OR($A6="date", $A6="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="67" stopIfTrue="1">
       <formula>$A6="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="69" stopIfTrue="1">
+      <formula>OR($A6="audio", $A6="video")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="66" priority="71" stopIfTrue="1">
       <formula>$A6="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="69" stopIfTrue="1">
-      <formula>OR($A6="audio", $A6="video")</formula>
+    <cfRule type="expression" dxfId="65" priority="73" stopIfTrue="1">
+      <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6 H6">
@@ -10679,14 +10777,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 H6">
-    <cfRule type="expression" dxfId="60" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="70" stopIfTrue="1">
+      <formula>$A6="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="72" stopIfTrue="1">
+      <formula>OR($A6="date", $A6="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="70" stopIfTrue="1">
-      <formula>$A6="image"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="72" stopIfTrue="1">
-      <formula>OR($A6="date", $A6="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6 S6 L6">
@@ -10695,14 +10793,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="expression" dxfId="56" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="68" stopIfTrue="1">
+      <formula>OR($A6="audio", $A6="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="76" stopIfTrue="1">
+      <formula>$A6="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
       <formula>$A6="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="68" stopIfTrue="1">
-      <formula>OR($A6="audio", $A6="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="76" stopIfTrue="1">
-      <formula>$A6="note"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="53" priority="80" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
@@ -10722,86 +10820,86 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="49" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="39" stopIfTrue="1">
+      <formula>OR($A6="audio", $A6="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="40" stopIfTrue="1">
+      <formula>$A6="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="41" stopIfTrue="1">
+      <formula>OR($A6="date", $A6="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="42" stopIfTrue="1">
+      <formula>$A6="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="43" stopIfTrue="1">
+      <formula>$A6="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
+      <formula>$A6="geopoint"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
       <formula>$A6="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="47" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="43" stopIfTrue="1">
-      <formula>$A6="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="44" stopIfTrue="1">
-      <formula>$A6="geopoint"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="42" stopIfTrue="1">
-      <formula>$A6="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>OR($A6="date", $A6="datetime")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
-      <formula>OR($A6="audio", $A6="video")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
-      <formula>$A6="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="30" stopIfTrue="1">
+      <formula>$A6="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="32" stopIfTrue="1">
+      <formula>$A6="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="36" stopIfTrue="1">
+      <formula>$A6="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
+      <formula>$A6="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
       <formula>$A6="begin group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
-      <formula>$A6="end group"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="30" stopIfTrue="1">
-      <formula>$A6="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="36" stopIfTrue="1">
-      <formula>$A6="begin repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
-      <formula>$A6="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:O6">
-    <cfRule type="expression" dxfId="35" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
+      <formula>$A6="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="33" stopIfTrue="1">
+      <formula>$A6="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
       <formula>$A6="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="31" stopIfTrue="1">
-      <formula>$A6="decimal"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
       <formula>$A6="end repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
-      <formula>$A6="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:P6">
-    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
+      <formula>OR($A6="calculate", $A6="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+      <formula>$A6="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
+      <formula>$A6="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="7" stopIfTrue="1">
-      <formula>$A6="barcode"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
-      <formula>$A6="note"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
-      <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="5" stopIfTrue="1">
-      <formula>OR($A6="calculate", $A6="calculate_here")</formula>
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:AD6">
@@ -10842,14 +10940,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:AD6">
-    <cfRule type="expression" dxfId="13" priority="54" stopIfTrue="1">
-      <formula>$A6="barcode"</formula>
+    <cfRule type="expression" dxfId="13" priority="52" stopIfTrue="1">
+      <formula>OR($A6="calculate", $A6="calculate_here")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="53" stopIfTrue="1">
       <formula>$A6="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="52" stopIfTrue="1">
-      <formula>OR($A6="calculate", $A6="calculate_here")</formula>
+    <cfRule type="expression" dxfId="11" priority="54" stopIfTrue="1">
+      <formula>$A6="barcode"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="55" stopIfTrue="1">
       <formula>$A6="geopoint"</formula>
@@ -10857,8 +10955,8 @@
     <cfRule type="expression" dxfId="9" priority="56" stopIfTrue="1">
       <formula>OR($A6="audio audit", $A6="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="65" stopIfTrue="1">
-      <formula>$A6="begin group"</formula>
+    <cfRule type="expression" dxfId="8" priority="57" stopIfTrue="1">
+      <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A6, 16)="select_multiple ", LEN($A6)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A6, 17)))), AND(LEFT($A6, 11)="select_one ", LEN($A6)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A6, 12)))))</formula>
@@ -10881,8 +10979,8 @@
     <cfRule type="expression" dxfId="1" priority="64" stopIfTrue="1">
       <formula>$A6="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="57" stopIfTrue="1">
-      <formula>OR($A6="phonenumber", $A6="start", $A6="end", $A6="deviceid", $A6="subscriberid", $A6="simserial")</formula>
+    <cfRule type="expression" dxfId="0" priority="65" stopIfTrue="1">
+      <formula>$A6="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
